--- a/biology/Zoologie/Eupanacra_pulchella/Eupanacra_pulchella.xlsx
+++ b/biology/Zoologie/Eupanacra_pulchella/Eupanacra_pulchella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupanacra pulchella est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Eupanacra. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 60 à 73 mm. L'espèce ressemble à Eupanacra micholitzi. Les adultes ont la face dorsale de l'aile antérieure sombre avec des rayures vert-jaunes et la face dorsale de l'aile postérieure orange avec une bande marginale sombre. Il y a un point discal évident sur la face ventrale de l'aile antérieure et une marge interne rouge pâle.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue dans la Nouvelle-Guinée occidentale (Indonesie) et en Papouasie-Nouvelle-Guinée.</t>
@@ -573,11 +589,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Eupanacra pulchella a été décrite par les entomologistes Lionel Walter Rothschild et Jordan,  en 1907, sous le nom initial de Panacra pulchella[1].
-Synonymie
-Panacra pulchella Rothschild &amp; Jordan, 1907 protonyme</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Eupanacra pulchella a été décrite par les entomologistes Lionel Walter Rothschild et Jordan,  en 1907, sous le nom initial de Panacra pulchella.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupanacra_pulchella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_pulchella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Panacra pulchella Rothschild &amp; Jordan, 1907 protonyme</t>
         </is>
       </c>
     </row>
